--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R2b0638ef549f4732"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R1542000d01e14648"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R1542000d01e14648"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rb0f29e10bd4d42ff"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rb0f29e10bd4d42ff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Ra6831024a5fa43a0"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Ra6831024a5fa43a0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rc0ce39b7209e4c5d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28,36 +28,36 @@
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="FFFFFF"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FFFFFFFF"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -70,25 +70,25 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="4472C4"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="ADD8E6"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFB6C1"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF00"/>
+        <x:fgColor rgb="FF4472C4"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFADD8E6"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFB6C1"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rc0ce39b7209e4c5d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R4fc65b5a9a0a42b8"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R4fc65b5a9a0a42b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R30e2a325159f4b33"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R30e2a325159f4b33"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rad3d4ee4e2ab42e7"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rad3d4ee4e2ab42e7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R085102a981234c9c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R085102a981234c9c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R5f8280a16c2b4e08"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R5f8280a16c2b4e08"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R26a7d54ada334b0f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R26a7d54ada334b0f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R33baf627d71d4e5a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R33baf627d71d4e5a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R9f17a1c3a4e3419a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R9f17a1c3a4e3419a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rf8536bcabb204fd2"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rf8536bcabb204fd2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rc2888b7af4b94f70"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rc2888b7af4b94f70"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rb9aaf758ac0e49e0"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rb9aaf758ac0e49e0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Red9ba7c1914c4817"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Red9ba7c1914c4817"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R98313b40b7674a1f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R98313b40b7674a1f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R515ebda108524931"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R515ebda108524931"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Re26376df17374797"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Re26376df17374797"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rb628170624ec4597"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rb628170624ec4597"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R023309bea40c425d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R023309bea40c425d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Ref8dff63b2ed4098"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Ref8dff63b2ed4098"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R170b8442309f4a75"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R170b8442309f4a75"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R22264b06b4944ff6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R22264b06b4944ff6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R174f89705bc640cb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R174f89705bc640cb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R46c1829941134af7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R46c1829941134af7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R7fc665309cc74164"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R7fc665309cc74164"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R67a07be3b065442d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R67a07be3b065442d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R24820f5c5f4f4ee3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R24820f5c5f4f4ee3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Ra8fac8e48d6c4131"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Ra8fac8e48d6c4131"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R2e72c501b05b4ef7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R2e72c501b05b4ef7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rc1357344d5874814"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rc1357344d5874814"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rf9a3796fa97b4ba1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rf9a3796fa97b4ba1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R29159d9da0ac47fa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R29159d9da0ac47fa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R5c18a53715674c17"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R5c18a53715674c17"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Ra88178edc56a4443"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Ra88178edc56a4443"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R09c334eece33444f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R09c334eece33444f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R40ffe12115124d66"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R40ffe12115124d66"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rfe6cadd597da421f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rfe6cadd597da421f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rb473cc348b81403f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rb473cc348b81403f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R8be3a5d678f54f7c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R8be3a5d678f54f7c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rfd35486a29d34676"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rfd35486a29d34676"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R05a7f727969d4176"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R05a7f727969d4176"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rc6a0565fbcd04382"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/28_MinMaxFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="Rc6a0565fbcd04382"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MinMaxFormula" sheetId="1" r:id="R298abc57bfb24a8f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
